--- a/biology/Botanique/Parodia/Parodia.xlsx
+++ b/biology/Botanique/Parodia/Parodia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parodia est un genre de la famille des cactus composé d'environ 50 espèces.
 Elles sont originaires du centre de l'Amérique du Sud : Nord du Chili et de l'Argentine, Bolivie, Paraguay et sud du Brésil. On les trouve sur les pentes arides des montagnes, jusqu'à 2 800 m, et dans les zones vallonnées.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom rappelle Lorenzo Raimundo Parodi (es) (1895-1966), botaniste argentin ayant étudié la flore du Paraguay[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom rappelle Lorenzo Raimundo Parodi (es) (1895-1966), botaniste argentin ayant étudié la flore du Paraguay.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les plantes sont de forme sphérique ou colonnaire jusqu'à 1 m de haut avec un diamètre jusqu'à 15 cm.
 Les cotes sont des successions d'aréoles placées en spirale.
 Les fleurs vont du rose au carmin ou parfois jaune. Elles ont jusqu'à 4 à 5 cm et durent jusqu'à 10 jours.
@@ -578,7 +594,9 @@
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme pour la plupart des cactus, prévoir un sol léger et bien drainé ainsi qu'une exposition ensoleillée.
 En hiver garder les plantes totalement au sec dans une exposition claire et une température de 8 à 12 °C.
@@ -614,9 +632,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste d'espèces
-Synonymes
-Les genres suivants ont été inclus dans Parodia.
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres suivants ont été inclus dans Parodia.
 Acanthocephala Backeb.
 Brasilicactus Backeb.
 Brasiliparodia F.Ritter
